--- a/files/history.xlsx
+++ b/files/history.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Kauba nimi</t>
-  </si>
-  <si>
-    <t>Hind</t>
   </si>
   <si>
     <t>Aeg</t>
@@ -116,15 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -410,88 +404,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="3">
+        <v>42736.538194444445</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>36161</v>
-      </c>
-      <c r="C2" s="4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
         <v>42736.538194444445</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
         <v>42736.538194444445</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
         <v>42736.538194444445</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>42736.538194444445</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/files/history.xlsx
+++ b/files/history.xlsx
@@ -26,37 +26,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Kauba nimi</t>
-  </si>
-  <si>
-    <t>Aeg</t>
-  </si>
-  <si>
-    <t>Koht</t>
-  </si>
-  <si>
-    <t>Piim</t>
-  </si>
-  <si>
-    <t>Kesklinna kauplus</t>
-  </si>
-  <si>
-    <t>Sai</t>
-  </si>
-  <si>
-    <t>Ülemiste kauplus</t>
-  </si>
-  <si>
-    <t>Leib</t>
-  </si>
-  <si>
-    <t>Lasnamäe kauplus</t>
-  </si>
-  <si>
-    <t>Õlu</t>
-  </si>
-  <si>
-    <t>Nõmme pood</t>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>White bread</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>Nõmme store</t>
+  </si>
+  <si>
+    <t>Kesklinna store</t>
+  </si>
+  <si>
+    <t>Ülemiste store</t>
+  </si>
+  <si>
+    <t>Lasnamäe store</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,16 +419,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -436,7 +436,7 @@
         <v>42736.538194444445</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,29 +447,29 @@
         <v>42736.538194444445</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>42736.538194444445</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>42736.538194444445</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
